--- a/data/trans_bre/P41_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P41_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,35</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-11,33</t>
+          <t>-20,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-16,17</t>
+          <t>-21,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-16,19</t>
+          <t>-23,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
+          <t>-26,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-17,88%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-29,62%</t>
+          <t>-75,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-28,46%</t>
+          <t>-78,99%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-81,77%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-85,26%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,53; 49,24</t>
+          <t>-11,41; 9,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-53,82; 27,24</t>
+          <t>-58,51; 1,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-55,16; 22,86</t>
+          <t>-58,34; 1,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-60,68; 28,43</t>
+          <t>-62,76; 3,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-45,19; 390,52</t>
+          <t>-67,93; 6,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-70,34; 82,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-81,14; 85,64</t>
+          <t>-100,0; 26,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-90,6; 137,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>-4,1</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,94</t>
+          <t>-10,82</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>-11,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-16,14%</t>
+          <t>-30,17%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-63,51%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>24,3%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 18,63</t>
+          <t>-7,04; 6,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 20,91</t>
+          <t>-8,54; 5,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 20,37</t>
+          <t>-11,74; 2,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 10,25</t>
+          <t>-18,33; -3,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,81; 101,2</t>
+          <t>-5,55; 8,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,53; 84,88</t>
+          <t>-53,46; 126,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 100,21</t>
+          <t>-56,02; 71,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,1; 40,39</t>
+          <t>-64,16; 31,98</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-82,27; -23,49</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-47,22; 170,04</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,86</t>
+          <t>10,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>6,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>43,81%</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>110,83%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>55,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>54,14%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>31,6%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>182,07%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 17,27</t>
+          <t>2,0; 18,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 13,92</t>
+          <t>-2,09; 14,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 16,41</t>
+          <t>-2,5; 15,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 15,42</t>
+          <t>-4,84; 14,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 137,64</t>
+          <t>0,66; 12,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,45; 94,19</t>
+          <t>12,82; 352,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 98,19</t>
+          <t>-18,37; 192,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,9; 75,33</t>
+          <t>-14,79; 196,1</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-22,16; 124,47</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 1083,54</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-9,07%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 14,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 10,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 12,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 5,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 83,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,76; 44,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 50,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,66; 18,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4,55</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-1,96</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-6,3</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-1,32</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>53,52%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-7,07%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-12,96%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-34,04%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-12,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,12; 9,11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-9,84; 4,7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-10,23; 3,75</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-16,75; -0,4</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-17,46; 5,33</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 150,41</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-47,47; 49,7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-49,68; 34,96</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-61,97; -2,05</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-74,21; 113,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P41_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P41_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,225 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-20,36</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-21,27</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-23,5</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-26,0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>14,28%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-75,76%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-78,99%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-81,77%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-85,26%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-5.816251145598017</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-35.1278595676075</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-36.71125099750734</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-37.7092259404431</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-32.80313189249618</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1328683423196839</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.4423126905690298</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.5808274580793813</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.573123435460162</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.5563979708725361</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-11,41; 9,89</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-58,51; 1,39</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-58,34; 1,86</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-62,76; 3,22</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-67,93; 6,14</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 26,08</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-63.74379284337055</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-79.69495263079041</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-80.87010379559896</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-85.66326485808217</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-83.95423454154455</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.8470052246587664</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.8990492427569986</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="6" t="inlineStr"/>
+      <c r="L5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>45.30469055233729</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>14.56329600611047</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.242508075752362</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>15.28321664996292</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>32.93940436434488</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>0.3750229329345189</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.538422947992431</v>
+      </c>
+      <c r="K6" s="6" t="inlineStr"/>
+      <c r="L6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,31</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-4,1</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-10,82</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,93</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>4,82%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-11,53%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-30,17%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-63,51%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>24,3%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,04; 6,51</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,54; 5,42</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-11,74; 2,85</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-18,33; -3,39</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-5,55; 8,05</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-53,46; 126,58</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-56,02; 71,76</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-64,16; 31,98</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-82,27; -23,49</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-47,22; 170,04</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>9.748716870042301</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>10.09590883058263</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.8477864360673992</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-14.05379158676445</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>10.30536456866271</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.4680271382985561</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3995274279140848</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.03120793163554678</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.4006109851845223</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.5746040793793437</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>10,22</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6,14</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,88</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,17</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,89</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>110,83%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>55,85%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>54,14%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>31,6%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>182,07%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.814791696719001</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.107521202468826</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-14.88158833520397</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-29.29541236933973</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-7.084756360091142</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2498640648885669</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.225156028398444</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4510444607095873</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.7029267151736782</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.3039553316918164</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>2,0; 18,04</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 14,04</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,5; 15,52</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,84; 14,21</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,66; 12,45</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>12,82; 352,61</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-18,37; 192,59</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-14,79; 196,1</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-22,16; 124,47</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0,12; 1083,54</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>25.56545802661934</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>29.17410959650942</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>17.65918425178473</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.278802298390941</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>25.46997090787938</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.849980606832839</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.859516713595115</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.8649634971901189</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.1459919220623556</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>2.422202204828758</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +869,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>15.49637975896696</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5.948587167517227</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.676971266277626</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>7.065164029369137</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>9.874699454052571</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1.016290420888614</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.2715946986496501</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.4238093352457235</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.2877097402806283</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>1.549971073427613</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>3.317390319760732</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-13.93123154039906</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.523622975623268</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.847960562424683</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.475075838805734</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.09109001878460614</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.4455850802799019</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1630555246964872</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1963565917360613</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.07129441014787573</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>27.39478357705051</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>19.60118981354272</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>22.08663621514106</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>20.98097059105219</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>19.22069472731283</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>2.998521336562388</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.488012846178325</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.831570629840337</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.344562626904165</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>8.310435971894981</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,55</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,95</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,96</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-6,3</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-1,32</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>53,52%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-7,07%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-12,96%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-34,04%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-12,62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 9,11</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,84; 4,7</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-10,23; 3,75</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-16,75; -0,4</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-17,46; 5,33</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 150,41</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-47,47; 49,7</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-49,68; 34,96</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-61,97; -2,05</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-74,21; 113,97</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>12.19761002178583</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.241768346639284</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.3756051247927439</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-6.21756256969439</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.9459241265971557</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.6457907283535319</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1143861622960992</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.01332632894519628</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.1822118365854465</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.04596331809950311</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.598352641634111</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-12.32910711501386</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-11.71071796469263</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-21.7311280007989</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-23.12683429244564</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.04627527128550631</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3362342127896875</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3419890672046453</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.490717120114232</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.6598659421166909</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>21.11231279552082</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>14.41312006026036</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>10.26506899600151</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.436726124072625</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>13.1126830131517</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.424531409031208</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.6371804912299931</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.4532923308313911</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.1772105212417761</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.287923958317824</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
